--- a/wzrv/expdata/2020.xlsx
+++ b/wzrv/expdata/2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226FE25-077D-FE4F-A84C-719CABC30743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,21 +75,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,12 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,21 +389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -447,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -467,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>1.9259999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H2" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -482,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -502,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>3.5910000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="H3" s="1">
-        <v>0.24299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I3" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -517,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -537,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>4.4610000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>0.32300000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="1">
-        <v>0.121</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -552,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -572,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>5.8769999999999998</v>
+        <v>5.9</v>
       </c>
       <c r="H5" s="1">
-        <v>0.46700000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -607,13 +598,13 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>6.6980000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="H6" s="1">
-        <v>0.53200000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>0.27900000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -622,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -633,7 +624,7 @@
         <v>510</v>
       </c>
       <c r="D7" s="1">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E7" s="1">
         <v>25</v>
@@ -642,13 +633,13 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>5.26</v>
+        <v>5.4</v>
       </c>
       <c r="H7" s="1">
-        <v>0.38100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="1">
-        <v>0.24099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
@@ -657,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -668,7 +659,7 @@
         <v>510</v>
       </c>
       <c r="D8" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E8" s="1">
         <v>25</v>
@@ -677,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>3.2669999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H8" s="1">
         <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
@@ -692,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,13 +703,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>2.0870000000000002</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -727,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,13 +738,13 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>1.115</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="1">
-        <v>0.17199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
@@ -761,9 +752,6 @@
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/wzrv/expdata/2020.xlsx
+++ b/wzrv/expdata/2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226FE25-077D-FE4F-A84C-719CABC30743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD701D01-C4EF-4E45-A2C9-A7A5DEEA03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>RW</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,16 +405,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -429,21 +429,21 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -455,7 +455,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>1.9</v>
@@ -467,18 +467,18 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -490,7 +490,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>3.8</v>
@@ -502,18 +502,18 @@
         <v>0.1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -525,7 +525,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>4.5999999999999996</v>
@@ -537,18 +537,18 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -560,7 +560,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>5.9</v>
@@ -572,18 +572,18 @@
         <v>0.2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>510</v>
@@ -595,7 +595,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>6.7</v>
@@ -607,18 +607,18 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -630,7 +630,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>5.4</v>
@@ -642,18 +642,18 @@
         <v>0.3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>510</v>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>3.3</v>
@@ -677,18 +677,18 @@
         <v>0.1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>510</v>
@@ -700,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -712,18 +712,18 @@
         <v>0.1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>510</v>
@@ -735,7 +735,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0.9</v>
@@ -747,10 +747,10 @@
         <v>0.1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2020.xlsx
+++ b/wzrv/expdata/2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD701D01-C4EF-4E45-A2C9-A7A5DEEA03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4977ECDA-304A-7F4D-A68A-52FE0163A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>RW</t>
   </si>
   <si>
-    <t>syst_c</t>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wzrv/expdata/2020.xlsx
+++ b/wzrv/expdata/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4977ECDA-304A-7F4D-A68A-52FE0163A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D313A9A-23E8-C04E-9C90-E29336CE2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>cms</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>syst_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -390,20 +393,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -420,25 +423,28 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -454,26 +460,29 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -489,26 +498,29 @@
       <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>3.8</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -524,26 +536,29 @@
       <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,26 +574,29 @@
       <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
         <v>5.9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.2</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,26 +612,29 @@
       <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
         <v>6.7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.3</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -629,26 +650,29 @@
       <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
         <v>5.4</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.3</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -664,26 +688,29 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
         <v>3.3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.1</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,26 +726,29 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.1</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,22 +764,25 @@
       <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.9</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.1</v>
       </c>
       <c r="I10" s="1">
         <v>0.1</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>13</v>
+      <c r="J10" s="1">
+        <v>0.1</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/wzrv/expdata/2020.xlsx
+++ b/wzrv/expdata/2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D313A9A-23E8-C04E-9C90-E29336CE2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291BA47-043A-9B4F-9646-0BB863196E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>cms</t>
   </si>
@@ -70,22 +70,26 @@
   </si>
   <si>
     <t>syst_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,58 +400,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -460,29 +464,26 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.9</v>
       </c>
       <c r="H2" s="1">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="1">
         <v>0.1</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -498,29 +499,26 @@
       <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.8</v>
       </c>
       <c r="H3" s="1">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="I3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J3" s="1">
         <v>0.1</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,29 +534,26 @@
       <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.5999999999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>4.5999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="1">
         <v>0.1</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -574,29 +569,26 @@
       <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.9</v>
       </c>
       <c r="H5" s="1">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="1">
         <v>0.2</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -612,29 +604,26 @@
       <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.7</v>
       </c>
       <c r="H6" s="1">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
         <v>0.3</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,29 +639,26 @@
       <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.4</v>
       </c>
       <c r="H7" s="1">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J7" s="1">
         <v>0.3</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,29 +674,26 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.3</v>
       </c>
       <c r="H8" s="1">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="1">
         <v>0.1</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -726,29 +709,26 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="1">
         <v>0.1</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -764,25 +744,22 @@
       <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.9</v>
       </c>
       <c r="H10" s="1">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="1">
         <v>0.1</v>
       </c>
-      <c r="J10" s="1">
-        <v>0.1</v>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
